--- a/Sheets/按钮测试表.xlsx
+++ b/Sheets/按钮测试表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70D0ABE-ECDC-47E0-AAC6-E30C40E82716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D479B80-523A-463F-BF58-03B9AE17663D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -809,7 +809,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A7:F8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Sheets/按钮测试表.xlsx
+++ b/Sheets/按钮测试表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D479B80-523A-463F-BF58-03B9AE17663D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0483B406-494F-4759-B247-6FB63C70FF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="181029"/>
 </workbook>
@@ -299,8 +298,8 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="1" builtinId="10"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="注释" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -371,80 +370,7 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="characters"/>
-      <sheetName val="config"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>id</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>名称</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>田所浩二</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>记者</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>3</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>你</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>4</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>旁白</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>5</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>王爷</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>6</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>奴才</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
+      <sheetName val="annotations"/>
       <sheetName val="functions"/>
       <sheetName val="config"/>
     </sheetNames>
@@ -455,6 +381,65 @@
             <v>id</v>
           </cell>
           <cell r="B1" t="str">
+            <v>名称</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>田所浩二</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>记者</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>3</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>你</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>4</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>旁白</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>5</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>王爷</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>6</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>奴才</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>id</v>
+          </cell>
+          <cell r="B1" t="str">
             <v>函数名</v>
           </cell>
         </row>
@@ -491,7 +476,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -508,7 +493,7 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="speakerId" name="发言人id" dataDxfId="5">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@speakerId" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="3" name="发言者姓名" dataDxfId="4" dataCellStyle="Note">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="3" name="发言者姓名" dataDxfId="4">
       <calculatedColumnFormula>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="content" name="对话内容">
@@ -520,14 +505,14 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="jumpTo" name="跳转对话id" dataDxfId="3">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@jumpTo" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="跳转预览" dataDxfId="2" dataCellStyle="Note">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="跳转预览" dataDxfId="2">
       <calculatedColumnFormula>IF(NOT(ISBLANK(F2)),VLOOKUP(F2,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="function" name="function" dataDxfId="1">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@function" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="函数预览" dataDxfId="0" dataCellStyle="Note">
-      <calculatedColumnFormula>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="函数预览" dataDxfId="0">
+      <calculatedColumnFormula>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="params" name="参数">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@params" xmlDataType="string"/>
@@ -809,7 +794,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -879,7 +864,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="I2" s="3" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J2" s="2"/>
@@ -892,7 +877,7 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="str">
+      <c r="C3" s="3" t="str">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>你</v>
       </c>
@@ -909,8 +894,8 @@
         <f>IF(NOT(ISBLANK(F3)),VLOOKUP(F3,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>停</v>
       </c>
-      <c r="I3" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I3" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J3" s="2"/>
@@ -923,7 +908,7 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="str">
+      <c r="C4" s="3" t="str">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>你</v>
       </c>
@@ -940,8 +925,8 @@
         <f>IF(NOT(ISBLANK(F4)),VLOOKUP(F4,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>停</v>
       </c>
-      <c r="I4" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I4" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J4" s="2"/>
@@ -951,7 +936,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="e">
+      <c r="C5" s="3" t="e">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -968,8 +953,8 @@
         <f>IF(NOT(ISBLANK(F5)),VLOOKUP(F5,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>停</v>
       </c>
-      <c r="I5" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I5" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J5" s="2"/>
@@ -979,7 +964,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="e">
+      <c r="C6" s="3" t="e">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -996,8 +981,8 @@
         <f>IF(NOT(ISBLANK(F6)),VLOOKUP(F6,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>停2</v>
       </c>
-      <c r="I6" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I6" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J6" s="2"/>
@@ -1007,7 +992,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="e">
+      <c r="C7" s="3" t="e">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -1024,8 +1009,8 @@
         <f>IF(NOT(ISBLANK(F7)),VLOOKUP(F7,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>stop</v>
       </c>
-      <c r="I7" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I7" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J7" s="2"/>
@@ -1035,7 +1020,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="e">
+      <c r="C8" s="3" t="e">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -1049,8 +1034,8 @@
         <f>IF(NOT(ISBLANK(F8)),VLOOKUP(F8,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I8" s="6" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I8" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J8" s="2"/>
